--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBuildingCost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE01B77-2E1F-4FB7-A930-5CA4321512C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -203,10 +204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>單位:新臺幣元/坪</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>建築造價</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -257,12 +254,16 @@
   <si>
     <t>FloorLowerLimit ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：新臺幣元/坪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -522,9 +523,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,6 +616,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -650,6 +668,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,11 +860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -852,7 +887,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
@@ -877,7 +912,7 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="15"/>
@@ -956,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>31</v>
@@ -977,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>34</v>
@@ -996,10 +1031,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>29</v>
@@ -1011,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,10 +1245,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
@@ -1239,24 +1274,24 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
